--- a/src/test/testResources/simpleTests/noCriteria.xlsx
+++ b/src/test/testResources/simpleTests/noCriteria.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Кейс задание\простые тесты\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2827BD6D-9FBC-4A2F-B5AF-09C5F8A95E25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28200" yWindow="1875" windowWidth="27465" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28200" yWindow="1875" windowWidth="27465" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
     <sheet name="out" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,9 +45,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>conkat</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
@@ -72,13 +63,16 @@
     <t xml:space="preserve">Привет </t>
   </si>
   <si>
-    <t>conkatHelloOne WorldПривет twoмир!</t>
+    <t>concat</t>
+  </si>
+  <si>
+    <t>HelloOne WorldПривет twoмир!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,18 +380,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -443,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -461,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -481,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -501,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,26 +533,11 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <f>MIN(C2:C7)</f>
-        <v>-5</v>
-      </c>
-      <c r="D8" s="4">
-        <f>MAX(D2:D7)</f>
-        <v>9.9999999999999998E+37</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT(F1:F7)</f>
-        <v>conkatHelloOne WorldПривет twoмир!</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
@@ -571,11 +550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6E570D-E134-42CF-89C5-50D73EF8E09C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
